--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-Study\CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A2AAE-0235-46FC-AD1C-78C78711E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91AA7E-1549-4B7E-B213-801C98FE58AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,15 +267,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,7 +556,7 @@
   <dimension ref="C3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -577,22 +577,22 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="3:12" ht="16.2" thickBot="1">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="3:12" ht="16.2" thickBot="1">
       <c r="C5" s="1" t="s">
@@ -601,28 +601,28 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -633,29 +633,29 @@
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
         <v>13</v>
       </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
         <f>E6+G6+I6</f>
         <v>7</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>F6+H6+J6</f>
         <v>18</v>
       </c>
@@ -667,29 +667,29 @@
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
         <v>10</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" ref="K7:K22" si="0">E7+G7+I7</f>
         <v>6</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L22" si="1">F7+H7+J7</f>
         <v>16</v>
       </c>
@@ -701,16 +701,16 @@
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
@@ -735,29 +735,29 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -769,29 +769,29 @@
       <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -803,29 +803,29 @@
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>7</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -837,29 +837,29 @@
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -871,29 +871,29 @@
       <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -905,29 +905,29 @@
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>6</v>
       </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -939,16 +939,16 @@
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="I15" s="7">
@@ -957,11 +957,11 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -973,29 +973,29 @@
       <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>8</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1007,29 +1007,29 @@
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1041,16 +1041,16 @@
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>2</v>
       </c>
       <c r="I18" s="7">
@@ -1059,11 +1059,11 @@
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1075,29 +1075,29 @@
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>4</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>3</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1109,10 +1109,10 @@
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="7">
@@ -1121,10 +1121,10 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7">
@@ -1143,29 +1143,29 @@
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>3</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1177,29 +1177,29 @@
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>16</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>3</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -1207,36 +1207,36 @@
     <row r="23" spans="3:12" ht="16.2" thickBot="1">
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" ref="E23" si="2">SUM(E6:E22)</f>
         <v>23</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f>SUM(F6:F22)</f>
         <v>41</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" ref="G23" si="3">SUM(G6:G22)</f>
-        <v>14</v>
-      </c>
-      <c r="H23" s="7">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" ref="H23" si="4">SUM(H6:H22)</f>
         <v>103</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" ref="I23" si="5">SUM(I6:I22)</f>
-        <v>5</v>
-      </c>
-      <c r="J23" s="7">
+        <v>6</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" ref="J23" si="6">SUM(J6:J22)</f>
         <v>24</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" ref="K23" si="7">SUM(K6:K22)</f>
-        <v>42</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" ref="G23:L23" si="8">SUM(L6:L22)</f>
+        <v>45</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" ref="L23" si="8">SUM(L6:L22)</f>
         <v>168</v>
       </c>
     </row>
